--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_10_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_10_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2030973.787257619</v>
+        <v>2019526.086763468</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8260286.60787093</v>
+        <v>8260286.607870935</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1928039.641030761</v>
+        <v>1928039.64103076</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9584079.266370142</v>
+        <v>9584079.26637014</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>38.88501798484931</v>
       </c>
       <c r="C2" t="n">
-        <v>16.69283417477807</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,40 +676,40 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="I2" t="n">
+      <c r="S2" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,7 +788,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="T4" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
-        <v>0.790450447682262</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.3440297721802</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>168.3767957392316</v>
+        <v>118.9618953390409</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>177.3440297721767</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>177.3440297721802</v>
+        <v>177.3440297721767</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>177.3440297721767</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>76.6735199060024</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>48.01347714140916</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>177.3440297721802</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.3440297721802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
     </row>
     <row r="8">
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>137.5711603586631</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>7.837102735344149</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>130.4655268502615</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>157.5993492121587</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>229.7259207147124</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.7268717888062</v>
+        <v>9.832771274809939</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>74.55681854024921</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>105.4771979831557</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.60408818428836</v>
+        <v>79.54367350501137</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>54.456022205514</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>60.86404150922422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2022,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2137,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>141.2684303493429</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>106.3401641210134</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>59.90320919298897</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>6.38006817584762</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5.389868198024223</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>108.5674217103421</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.5559617506116</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.18872674459055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>129.2418567859524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>37.28745735111455</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>317.3810635611287</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119.771701872045</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>254.3985143316719</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>121.0389903687758</v>
+        <v>29.36307738576918</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>111.7244765928106</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>52.23490948285971</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>176.5286895169144</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="C2" t="n">
-        <v>159.6672408555224</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="D2" t="n">
-        <v>159.6672408555224</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="E2" t="n">
-        <v>115.0892889573117</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="F2" t="n">
-        <v>108.1437882081082</v>
+        <v>31.05787365877018</v>
       </c>
       <c r="G2" t="n">
-        <v>92.68647758675968</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H2" t="n">
-        <v>48.10852568854899</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J2" t="n">
         <v>3.530573790338288</v>
@@ -4339,10 +4339,10 @@
         <v>45.45613755060546</v>
       </c>
       <c r="M2" t="n">
+        <v>45.45613755060546</v>
+      </c>
+      <c r="N2" t="n">
         <v>89.14698820604177</v>
-      </c>
-      <c r="N2" t="n">
-        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
         <v>132.8378388614781</v>
@@ -4351,31 +4351,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V2" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W2" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X2" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.284706443124001</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C3" t="n">
-        <v>4.284706443124001</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D3" t="n">
-        <v>4.284706443124001</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E3" t="n">
-        <v>4.284706443124001</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F3" t="n">
-        <v>4.284706443124001</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G3" t="n">
-        <v>4.284706443124001</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
         <v>4.284706443124001</v>
@@ -4412,7 +4412,7 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
         <v>47.22142444577459</v>
@@ -4421,10 +4421,10 @@
         <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
         <v>176.5286895169144</v>
@@ -4436,25 +4436,25 @@
         <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>93.44061023954541</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>93.44061023954541</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>93.44061023954541</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>93.44061023954541</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>48.8626583413347</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X3" t="n">
-        <v>48.8626583413347</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.284706443124001</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G4" t="n">
         <v>3.530573790338288</v>
@@ -4509,31 +4509,31 @@
         <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>93.48491238239833</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T4" t="n">
-        <v>48.90696048418764</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U4" t="n">
         <v>48.10852568854899</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.7224044568923</v>
+        <v>341.0137365039612</v>
       </c>
       <c r="C5" t="n">
-        <v>199.7224044568923</v>
+        <v>341.0137365039612</v>
       </c>
       <c r="D5" t="n">
-        <v>199.7224044568923</v>
+        <v>341.0137365039612</v>
       </c>
       <c r="E5" t="n">
-        <v>199.7224044568923</v>
+        <v>341.0137365039612</v>
       </c>
       <c r="F5" t="n">
-        <v>29.64483300312295</v>
+        <v>220.8502058584654</v>
       </c>
       <c r="G5" t="n">
-        <v>14.18752238177441</v>
+        <v>205.3928952371168</v>
       </c>
       <c r="H5" t="n">
-        <v>14.18752238177441</v>
+        <v>26.25751162885749</v>
       </c>
       <c r="I5" t="n">
-        <v>14.18752238177441</v>
+        <v>26.25751162885749</v>
       </c>
       <c r="J5" t="n">
-        <v>14.18752238177441</v>
+        <v>14.18752238177414</v>
       </c>
       <c r="K5" t="n">
-        <v>117.2025282926968</v>
+        <v>117.2025282926965</v>
       </c>
       <c r="L5" t="n">
-        <v>292.7731177671551</v>
+        <v>292.7731177671515</v>
       </c>
       <c r="M5" t="n">
-        <v>468.3437072416135</v>
+        <v>468.3437072416064</v>
       </c>
       <c r="N5" t="n">
-        <v>560.1811689460726</v>
+        <v>643.9142967160614</v>
       </c>
       <c r="O5" t="n">
-        <v>709.3761190887207</v>
+        <v>709.3761190887069</v>
       </c>
       <c r="P5" t="n">
-        <v>709.3761190887207</v>
+        <v>709.3761190887069</v>
       </c>
       <c r="Q5" t="n">
-        <v>709.3761190887207</v>
+        <v>699.2845037204798</v>
       </c>
       <c r="R5" t="n">
-        <v>557.9931716734179</v>
+        <v>699.2845037204798</v>
       </c>
       <c r="S5" t="n">
-        <v>378.8577880651551</v>
+        <v>520.1491201122205</v>
       </c>
       <c r="T5" t="n">
-        <v>378.8577880651551</v>
+        <v>520.1491201122205</v>
       </c>
       <c r="U5" t="n">
-        <v>378.8577880651551</v>
+        <v>341.0137365039612</v>
       </c>
       <c r="V5" t="n">
-        <v>378.8577880651551</v>
+        <v>341.0137365039612</v>
       </c>
       <c r="W5" t="n">
-        <v>378.8577880651551</v>
+        <v>341.0137365039612</v>
       </c>
       <c r="X5" t="n">
-        <v>378.8577880651551</v>
+        <v>341.0137365039612</v>
       </c>
       <c r="Y5" t="n">
-        <v>378.8577880651551</v>
+        <v>341.0137365039612</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>302.6068901131959</v>
+        <v>434.7892450922615</v>
       </c>
       <c r="C6" t="n">
-        <v>302.6068901131959</v>
+        <v>434.7892450922615</v>
       </c>
       <c r="D6" t="n">
-        <v>153.6724804519446</v>
+        <v>434.7892450922615</v>
       </c>
       <c r="E6" t="n">
-        <v>153.6724804519446</v>
+        <v>434.7892450922615</v>
       </c>
       <c r="F6" t="n">
-        <v>153.6724804519446</v>
+        <v>357.3412451872085</v>
       </c>
       <c r="G6" t="n">
-        <v>14.94165503456013</v>
+        <v>218.610419769824</v>
       </c>
       <c r="H6" t="n">
-        <v>14.94165503456013</v>
+        <v>105.2412841774034</v>
       </c>
       <c r="I6" t="n">
-        <v>14.94165503456013</v>
+        <v>14.94165503455985</v>
       </c>
       <c r="J6" t="n">
-        <v>14.18752238177441</v>
+        <v>14.18752238177414</v>
       </c>
       <c r="K6" t="n">
-        <v>113.2697921520162</v>
+        <v>139.5450824396115</v>
       </c>
       <c r="L6" t="n">
-        <v>288.8403816264746</v>
+        <v>139.5450824396115</v>
       </c>
       <c r="M6" t="n">
-        <v>288.8403816264746</v>
+        <v>315.1156719140665</v>
       </c>
       <c r="N6" t="n">
-        <v>288.8403816264746</v>
+        <v>358.2349401397971</v>
       </c>
       <c r="O6" t="n">
-        <v>464.410971100933</v>
+        <v>533.805529614252</v>
       </c>
       <c r="P6" t="n">
-        <v>639.9815605753913</v>
+        <v>709.3761190887069</v>
       </c>
       <c r="Q6" t="n">
-        <v>709.3761190887207</v>
+        <v>709.3761190887069</v>
       </c>
       <c r="R6" t="n">
-        <v>709.3761190887207</v>
+        <v>608.2065896415926</v>
       </c>
       <c r="S6" t="n">
-        <v>660.8776573297215</v>
+        <v>434.7892450922615</v>
       </c>
       <c r="T6" t="n">
-        <v>660.8776573297215</v>
+        <v>434.7892450922615</v>
       </c>
       <c r="U6" t="n">
-        <v>481.7422737214587</v>
+        <v>434.7892450922615</v>
       </c>
       <c r="V6" t="n">
-        <v>481.7422737214587</v>
+        <v>434.7892450922615</v>
       </c>
       <c r="W6" t="n">
-        <v>481.7422737214587</v>
+        <v>434.7892450922615</v>
       </c>
       <c r="X6" t="n">
-        <v>481.7422737214587</v>
+        <v>434.7892450922615</v>
       </c>
       <c r="Y6" t="n">
-        <v>302.6068901131959</v>
+        <v>434.7892450922615</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145.9708828365841</v>
+        <v>36.6819585695346</v>
       </c>
       <c r="C7" t="n">
-        <v>145.9708828365841</v>
+        <v>36.6819585695346</v>
       </c>
       <c r="D7" t="n">
-        <v>145.9708828365841</v>
+        <v>36.6819585695346</v>
       </c>
       <c r="E7" t="n">
-        <v>145.9708828365841</v>
+        <v>36.6819585695346</v>
       </c>
       <c r="F7" t="n">
-        <v>145.9708828365841</v>
+        <v>36.6819585695346</v>
       </c>
       <c r="G7" t="n">
-        <v>145.9708828365841</v>
+        <v>36.6819585695346</v>
       </c>
       <c r="H7" t="n">
-        <v>145.9708828365841</v>
+        <v>36.6819585695346</v>
       </c>
       <c r="I7" t="n">
-        <v>14.18752238177441</v>
+        <v>36.6819585695346</v>
       </c>
       <c r="J7" t="n">
-        <v>14.18752238177441</v>
+        <v>36.6819585695346</v>
       </c>
       <c r="K7" t="n">
-        <v>14.18752238177441</v>
+        <v>14.18752238177414</v>
       </c>
       <c r="L7" t="n">
-        <v>41.50164738948739</v>
+        <v>41.50164738948712</v>
       </c>
       <c r="M7" t="n">
-        <v>80.68968558170957</v>
+        <v>80.6896855817093</v>
       </c>
       <c r="N7" t="n">
-        <v>124.3805362371459</v>
+        <v>124.3805362371456</v>
       </c>
       <c r="O7" t="n">
-        <v>148.7198128720452</v>
+        <v>148.7198128720449</v>
       </c>
       <c r="P7" t="n">
-        <v>145.9708828365841</v>
+        <v>148.7198128720449</v>
       </c>
       <c r="Q7" t="n">
-        <v>145.9708828365841</v>
+        <v>148.7198128720449</v>
       </c>
       <c r="R7" t="n">
-        <v>145.9708828365841</v>
+        <v>148.7198128720449</v>
       </c>
       <c r="S7" t="n">
-        <v>145.9708828365841</v>
+        <v>148.7198128720449</v>
       </c>
       <c r="T7" t="n">
-        <v>145.9708828365841</v>
+        <v>148.7198128720449</v>
       </c>
       <c r="U7" t="n">
-        <v>145.9708828365841</v>
+        <v>148.7198128720449</v>
       </c>
       <c r="V7" t="n">
-        <v>145.9708828365841</v>
+        <v>148.7198128720449</v>
       </c>
       <c r="W7" t="n">
-        <v>145.9708828365841</v>
+        <v>148.7198128720449</v>
       </c>
       <c r="X7" t="n">
-        <v>145.9708828365841</v>
+        <v>148.7198128720449</v>
       </c>
       <c r="Y7" t="n">
-        <v>145.9708828365841</v>
+        <v>36.6819585695346</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>746.3079049238204</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>387.2723657094944</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C9" t="n">
-        <v>387.2723657094944</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D9" t="n">
-        <v>387.2723657094944</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E9" t="n">
-        <v>248.3115976704407</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>248.3115976704407</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>555.4877027295624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>555.4877027295624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>555.4877027295624</v>
+        <v>956.1408901213997</v>
       </c>
       <c r="Y9" t="n">
-        <v>555.4877027295624</v>
+        <v>956.1408901213997</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5004,10 +5004,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1384.829779622645</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="C11" t="n">
-        <v>1384.829779622645</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D11" t="n">
-        <v>1026.564081015895</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E11" t="n">
-        <v>640.7758284176502</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5041,19 +5041,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5074,19 +5074,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.034709923658</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>2161.568951662578</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y11" t="n">
-        <v>1771.429619686767</v>
+        <v>1576.753911832149</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.6287558445192</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C13" t="n">
-        <v>216.6287558445192</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5226,25 +5226,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271517</v>
+        <v>782.4929502983425</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5299,7 +5299,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>3108.772528910857</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2735.306770649777</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>646.6939999491682</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C16" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D16" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X16" t="n">
-        <v>680.6375233676413</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y16" t="n">
-        <v>646.6939999491682</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="17">
@@ -5530,13 +5530,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5545,7 +5545,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3536.883768657697</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C19" t="n">
-        <v>3536.883768657697</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D19" t="n">
-        <v>3536.883768657697</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E19" t="n">
-        <v>3475.4049388504</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
-        <v>3328.51499135249</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>3160.812154727209</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>4274.768765573601</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U19" t="n">
-        <v>3985.665898699244</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V19" t="n">
-        <v>3985.665898699244</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W19" t="n">
-        <v>3985.665898699244</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X19" t="n">
-        <v>3757.676347801227</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="Y19" t="n">
-        <v>3536.883768657697</v>
+        <v>931.4530568143261</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5758,16 +5758,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175504</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5834,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3773.434671845129</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3773.434671845129</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3623.318032432793</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4688.221265177249</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>4688.221265177249</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>4545.525880985993</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>4290.841392780107</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>4001.424222743146</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>3773.434671845129</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3773.434671845129</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5977,37 +5977,37 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551631</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001596</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>1687.484443350884</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.236715577531</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4299.260038026375</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>663.7853125466709</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C25" t="n">
-        <v>663.7853125466709</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D25" t="n">
-        <v>663.7853125466709</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>156.0693265625247</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557401</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>1355.643526557401</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W25" t="n">
-        <v>1066.226356520441</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X25" t="n">
-        <v>1066.226356520441</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y25" t="n">
-        <v>845.4337773769106</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272054</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4299.260038026375</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320242</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>714.8612091800761</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C28" t="n">
-        <v>545.9250262521692</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D28" t="n">
-        <v>395.8083868398335</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>247.8952932574404</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>101.00534575953</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>101.00534575953</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.060509258584</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1163.643339221624</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>935.6537883236062</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>714.8612091800761</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>348.082974081076</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.993034926781</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>691.980755747597</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>523.0445728196901</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>372.9279334073543</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>372.9279334073543</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>372.9279334073543</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>205.2250967820733</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6648,25 +6648,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1866.513008862232</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1611.828520656345</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>1322.411350619384</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>1094.421799721367</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>873.6292205778367</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1460.488316778687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2439.038619608516</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667298</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996753</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6903,7 +6903,7 @@
         <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>391.866433243363</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7007,13 +7007,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.7687655736</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699243</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>3730.981410493357</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>3730.981410493357</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>3730.981410493357</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>3657.053403680639</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1797.117834600128</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M38" t="n">
-        <v>2330.649739272053</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330835</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7259,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.1131475839754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1475.554715057174</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1220.870226851287</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>931.4530568143261</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>800.9057267275056</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>580.1131475839754</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1311.909787855437</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C41" t="n">
-        <v>942.9472709150257</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D41" t="n">
-        <v>942.9472709150257</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E41" t="n">
-        <v>557.1590183167814</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F41" t="n">
-        <v>146.1731135271738</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>146.1731135271738</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>1698.509627919559</v>
+        <v>2278.784475187948</v>
       </c>
     </row>
     <row r="42">
@@ -7490,13 +7490,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1611.040576735003</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C43" t="n">
-        <v>1611.040576735003</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D43" t="n">
-        <v>1611.040576735003</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E43" t="n">
-        <v>1611.040576735003</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F43" t="n">
-        <v>1611.040576735003</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G43" t="n">
-        <v>1611.040576735003</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>3014.008748936224</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>2724.905882061868</v>
+        <v>1448.559736363401</v>
       </c>
       <c r="V43" t="n">
-        <v>2470.221393855981</v>
+        <v>1193.875248157514</v>
       </c>
       <c r="W43" t="n">
-        <v>2180.804223819021</v>
+        <v>904.4580781205533</v>
       </c>
       <c r="X43" t="n">
-        <v>1952.814672921003</v>
+        <v>676.468527222536</v>
       </c>
       <c r="Y43" t="n">
-        <v>1732.022093777473</v>
+        <v>676.468527222536</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1689.318139675982</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7657,7 +7657,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W44" t="n">
-        <v>2839.523069976995</v>
+        <v>2726.147254667285</v>
       </c>
       <c r="X44" t="n">
-        <v>2466.057311715915</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y44" t="n">
-        <v>2075.917979740103</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>645.3078929297411</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C46" t="n">
-        <v>476.3717100018342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D46" t="n">
-        <v>326.2550705894985</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E46" t="n">
-        <v>326.2550705894985</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F46" t="n">
-        <v>179.3651230915881</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G46" t="n">
-        <v>179.3651230915881</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X46" t="n">
-        <v>866.1004720732712</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y46" t="n">
-        <v>645.3078929297411</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
   </sheetData>
@@ -7987,13 +7987,13 @@
         <v>278.1154692732874</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
         <v>275.3651681344982</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8221,16 +8221,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>413.1104447421674</v>
+        <v>413.110444742164</v>
       </c>
       <c r="M5" t="n">
-        <v>407.6902629994529</v>
+        <v>407.6902629994495</v>
       </c>
       <c r="N5" t="n">
-        <v>322.1781764293779</v>
+        <v>406.7570933687676</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>296.2212643233489</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>237.924539752381</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>315.8984095520543</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>319.478063694195</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>174.8965284729601</v>
       </c>
       <c r="O6" t="n">
-        <v>319.9402742166246</v>
+        <v>319.9402742166212</v>
       </c>
       <c r="P6" t="n">
-        <v>311.3184371865104</v>
+        <v>311.318437186507</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,19 +9406,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>285.6623071682324</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>85.51392558917598</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>173.2204606877393</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9883,19 +9883,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>411.0304280899003</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>173.2204606877393</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>64.28566532692543</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>374.169394802195</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>395.1460246798101</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>411.0304280898992</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>249.2766965295528</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>156.5120179413412</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.10510839313108</v>
+        <v>169.9992089071274</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.1262230804338</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>243.7637707342573</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.9805651678064</v>
+        <v>139.0409798470834</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>125.3759579764233</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>85.56992113734495</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>144.94340785627</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>40.09379852555578</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>84.8518057213318</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>139.3651467162966</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>36.18759320397872</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>129.2760184313257</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.3959266075042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>96.46779860308479</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>257.3203070362059</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>68.85687509492493</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60.0602783098923</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>31.81332387394096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>228.2019783486372</v>
+        <v>319.8778913316438</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>33.03053832151014</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>166.3497438692351</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>917554.2905559104</v>
+        <v>917554.2905559101</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>705143.4925405108</v>
+        <v>705143.4925405107</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>705143.492540511</v>
+        <v>705143.4925405107</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>848728.8198973354</v>
+        <v>848728.8198973351</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>848728.8198973354</v>
+        <v>848728.8198973353</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>848728.8198973354</v>
+        <v>848728.8198973353</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>848728.8198973354</v>
+        <v>848728.8198973353</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>705143.4925405107</v>
+        <v>705143.4925405108</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>705143.4925405107</v>
+        <v>705143.492540511</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
         <v>494445.7935078348</v>
@@ -26331,28 +26331,28 @@
         <v>575768.5909861256</v>
       </c>
       <c r="H2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="I2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="J2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="L2" t="n">
         <v>575768.5909861256</v>
-      </c>
-      <c r="J2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="K2" t="n">
-        <v>575768.5909861252</v>
-      </c>
-      <c r="L2" t="n">
-        <v>575768.5909861255</v>
       </c>
       <c r="M2" t="n">
         <v>575768.5909861258</v>
       </c>
       <c r="N2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="O2" t="n">
-        <v>494445.7935078348</v>
+        <v>494445.793507835</v>
       </c>
       <c r="P2" t="n">
         <v>494445.7935078348</v>
@@ -26368,10 +26368,10 @@
         <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
-        <v>43036.84615127504</v>
+        <v>43036.84615127393</v>
       </c>
       <c r="D3" t="n">
-        <v>19777.89258593491</v>
+        <v>19777.89258593598</v>
       </c>
       <c r="E3" t="n">
         <v>1051806.48999335</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091489</v>
+        <v>99523.40868091492</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>11546.91810999091</v>
       </c>
       <c r="K3" t="n">
-        <v>34284.46931350916</v>
+        <v>34284.46931350828</v>
       </c>
       <c r="L3" t="n">
-        <v>16114.36954726476</v>
+        <v>16114.36954726563</v>
       </c>
       <c r="M3" t="n">
-        <v>147126.8434466047</v>
+        <v>147126.8434466048</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>392085.4318580095</v>
       </c>
       <c r="C4" t="n">
-        <v>372271.2701419293</v>
+        <v>372271.2701419299</v>
       </c>
       <c r="D4" t="n">
         <v>362800.8458485478</v>
@@ -26432,22 +26432,22 @@
         <v>6720.683277029938</v>
       </c>
       <c r="G4" t="n">
-        <v>35504.07070869963</v>
+        <v>35504.07070869964</v>
       </c>
       <c r="H4" t="n">
-        <v>35504.07070869964</v>
+        <v>35504.07070869965</v>
       </c>
       <c r="I4" t="n">
-        <v>35504.07070869964</v>
+        <v>35504.07070869965</v>
       </c>
       <c r="J4" t="n">
         <v>35504.07070869965</v>
       </c>
       <c r="K4" t="n">
-        <v>35504.07070869965</v>
+        <v>35504.07070869964</v>
       </c>
       <c r="L4" t="n">
-        <v>35504.07070869964</v>
+        <v>35504.07070869962</v>
       </c>
       <c r="M4" t="n">
         <v>35504.07070869963</v>
@@ -26472,7 +26472,7 @@
         <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>44410.11701014855</v>
+        <v>44410.11701014834</v>
       </c>
       <c r="D5" t="n">
         <v>48281.26876376167</v>
@@ -26502,10 +26502,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26524,46 +26524,46 @@
         <v>152069.3092086944</v>
       </c>
       <c r="C6" t="n">
-        <v>135537.0498482523</v>
+        <v>135537.0498482531</v>
       </c>
       <c r="D6" t="n">
-        <v>164395.2759533607</v>
+        <v>164395.2759533598</v>
       </c>
       <c r="E6" t="n">
-        <v>-638387.7203239381</v>
+        <v>-641863.9096219991</v>
       </c>
       <c r="F6" t="n">
-        <v>413418.7696694116</v>
+        <v>409942.5803713505</v>
       </c>
       <c r="G6" t="n">
-        <v>344357.5933427974</v>
+        <v>343685.6384405395</v>
       </c>
       <c r="H6" t="n">
-        <v>443881.0020237122</v>
+        <v>443209.0471214545</v>
       </c>
       <c r="I6" t="n">
-        <v>443881.0020237123</v>
+        <v>443209.0471214546</v>
       </c>
       <c r="J6" t="n">
-        <v>432334.0839137216</v>
+        <v>431662.1290114637</v>
       </c>
       <c r="K6" t="n">
-        <v>409596.5327102027</v>
+        <v>408924.5778079465</v>
       </c>
       <c r="L6" t="n">
-        <v>427766.6324764474</v>
+        <v>427094.6775741888</v>
       </c>
       <c r="M6" t="n">
-        <v>296754.1585771077</v>
+        <v>296082.2036748497</v>
       </c>
       <c r="N6" t="n">
-        <v>443881.0020237123</v>
+        <v>443209.0471214545</v>
       </c>
       <c r="O6" t="n">
-        <v>413418.7696694116</v>
+        <v>409942.5803713506</v>
       </c>
       <c r="P6" t="n">
-        <v>413418.7696694115</v>
+        <v>409942.5803713505</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>177.3440297721802</v>
+        <v>177.3440297721767</v>
       </c>
       <c r="D4" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26828,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -27014,19 +27014,19 @@
         <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>133.2118573929516</v>
+        <v>133.2118573929481</v>
       </c>
       <c r="D4" t="n">
-        <v>63.67025910547889</v>
+        <v>63.67025910548233</v>
       </c>
       <c r="E4" t="n">
-        <v>590.3871665246336</v>
+        <v>590.3871665246337</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026374</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>44.13217237922868</v>
       </c>
       <c r="K4" t="n">
-        <v>133.2118573929516</v>
+        <v>133.2118573929481</v>
       </c>
       <c r="L4" t="n">
-        <v>63.67025910547889</v>
+        <v>63.67025910548233</v>
       </c>
       <c r="M4" t="n">
-        <v>590.3871665246334</v>
+        <v>590.3871665246337</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>133.2118573929516</v>
+        <v>133.2118573929481</v>
       </c>
       <c r="L4" t="n">
-        <v>63.67025910547889</v>
+        <v>63.67025910548233</v>
       </c>
       <c r="M4" t="n">
-        <v>590.3871665246336</v>
+        <v>590.3871665246337</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026374</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>343.8488236786313</v>
       </c>
       <c r="C2" t="n">
-        <v>348.5800575962295</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>99.21849105784395</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5581449984711</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27581,22 +27581,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>223.22614758929</v>
       </c>
       <c r="T4" t="n">
         <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
-        <v>285.5285789088086</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.3898118913004</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>238.4992500024798</v>
+        <v>287.9141504026705</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>162.1307723435904</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>31.67603981406518</v>
+        <v>31.67603981406862</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>74.00162313565977</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27700,22 +27700,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>68.39569248738148</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>123.6696939624287</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>48.59735230879465</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>28.3386660051242</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>24.98494807699674</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>107.6671775926096</v>
       </c>
     </row>
     <row r="8">
@@ -27861,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>326.2184291470086</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27934,16 +27934,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>20.07392009673782</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27952,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,13 +27991,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>197.9358824681333</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>95.24412853877561</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33043,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34707,13 +34707,13 @@
         <v>42.34905430330018</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
         <v>44.13217237922859</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
+        <v>42.34905430330019</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="O3" t="n">
-        <v>42.34905430330016</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34941,16 +34941,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>177.3440297721802</v>
+        <v>177.3440297721767</v>
       </c>
       <c r="M5" t="n">
-        <v>177.3440297721802</v>
+        <v>177.3440297721767</v>
       </c>
       <c r="N5" t="n">
-        <v>92.76511283278701</v>
+        <v>177.3440297721767</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>66.12305290166216</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>100.083100778022</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>177.3440297721802</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>177.3440297721767</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>43.55481638962681</v>
       </c>
       <c r="O6" t="n">
-        <v>177.3440297721802</v>
+        <v>177.3440297721767</v>
       </c>
       <c r="P6" t="n">
-        <v>177.3440297721802</v>
+        <v>177.3440297721767</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35907,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>837.9641425811438</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>624.4350414194028</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>424.0147654914588</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36603,19 +36603,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>949.9515439201271</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>424.0147654914588</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>255.072666295638</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>882.2223956904141</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>850.7361390721422</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37086,13 +37086,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>866.6205424822314</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,16 +37557,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37788,10 +37788,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
